--- a/ExcelUtils-test.xlsx
+++ b/ExcelUtils-test.xlsx
@@ -134,8 +134,203 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>191</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1600391" cy="190614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>191</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1600391" cy="190614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>191</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1600391" cy="190614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>191</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1600391" cy="190614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>191</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1600391" cy="190614"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
@@ -157,6 +352,7 @@
     <col min="10" max="10" width="15.0" customWidth="true"/>
     <col min="11" max="11" width="15.0" customWidth="true"/>
     <col min="12" max="12" width="15.0" customWidth="true"/>
+    <col min="13" max="13" width="15.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -222,83 +418,93 @@
           <t>aBoolean数据</t>
         </is>
       </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>图片链接</t>
+        </is>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2024-05-06 22:41:54</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>2024-05-06</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>22:41:54</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>2024-05-06 22:41:54</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+    <row r="3" customHeight="true" ht="255.0">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-01 00:31:12</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>00:31:12</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-01 00:31:12</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>666</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>22.33</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>888</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>666.888</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>http://mms1.baidu.com/it/u=1684950961,555061934&amp;fm=253&amp;app=120&amp;f=JPEG?w=800&amp;h=800</t>
+        </is>
+      </c>
     </row>
-    <row r="4">
+    <row r="4" customHeight="true" ht="255.0">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2024-05-06 22:41:54</t>
+          <t>2024-12-01 00:31:12</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>22:41:54</t>
+          <t>00:31:12</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>2024-05-06 22:41:54</t>
+          <t>2024-12-01 00:31:12</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -336,83 +542,93 @@
           <t>true</t>
         </is>
       </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>http://mms0.baidu.com/it/u=1163903759,2895241531&amp;fm=253&amp;app=138&amp;f=JPEG?w=800&amp;h=1066</t>
+        </is>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>2024-05-06 22:41:54</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>2024-05-06</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>22:41:54</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2024-05-06 22:41:54</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
+    <row r="5" customHeight="true" ht="255.0">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-01 00:31:12</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>00:31:12</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-01 00:31:12</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>666</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="H5" s="1" t="inlineStr">
         <is>
           <t>22.33</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>888</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="J5" s="1" t="inlineStr">
         <is>
           <t>666.888</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="K5" s="1" t="inlineStr">
         <is>
           <t>false</t>
         </is>
       </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>http://mms1.baidu.com/it/u=4198565569,2274601556&amp;fm=253&amp;app=138&amp;f=JPEG?w=513&amp;h=500</t>
+        </is>
+      </c>
     </row>
-    <row r="6">
+    <row r="6" customHeight="true" ht="255.0">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2024-05-06 22:41:54</t>
+          <t>2024-12-01 00:31:12</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>22:41:54</t>
+          <t>00:31:12</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>2024-05-06 22:41:54</t>
+          <t>2024-12-01 00:31:12</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -450,68 +666,79 @@
           <t>false</t>
         </is>
       </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>http://mms2.baidu.com/it/u=962926323,2652095159&amp;fm=253&amp;app=120&amp;f=JPEG?w=800&amp;h=800</t>
+        </is>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>2024-05-06 22:41:54</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>2024-05-06</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>22:41:54</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2024-05-06 22:41:54</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+    <row r="7" customHeight="true" ht="255.0">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-01 00:31:12</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>00:31:12</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-01 00:31:12</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
         <is>
           <t>String</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>666</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="H7" s="1" t="inlineStr">
         <is>
           <t>22.33</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="I7" s="1" t="inlineStr">
         <is>
           <t>888</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="J7" s="1" t="inlineStr">
         <is>
           <t>666.888</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr">
+      <c r="K7" s="1" t="inlineStr">
         <is>
           <t>true</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>http://mms2.baidu.com/it/u=3123971159,81579136&amp;fm=253&amp;app=138&amp;f=JPEG?w=500&amp;h=620</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelUtils-test.xlsx
+++ b/ExcelUtils-test.xlsx
@@ -144,10 +144,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>191</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1023</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>114</xdr:rowOff>
+      <xdr:rowOff>255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -165,7 +165,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1600391" cy="190614"/>
+          <a:ext cx="534423" cy="190755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -182,10 +182,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>191</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1023</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114</xdr:rowOff>
+      <xdr:rowOff>255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -203,7 +203,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1600391" cy="190614"/>
+          <a:ext cx="534423" cy="190755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -220,10 +220,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>191</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1023</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>114</xdr:rowOff>
+      <xdr:rowOff>255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -241,7 +241,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1600391" cy="190614"/>
+          <a:ext cx="534423" cy="190755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -258,10 +258,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>191</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1023</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>114</xdr:rowOff>
+      <xdr:rowOff>255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -279,7 +279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1600391" cy="190614"/>
+          <a:ext cx="534423" cy="190755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -296,10 +296,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>191</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1023</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>114</xdr:rowOff>
+      <xdr:rowOff>255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -317,7 +317,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1600391" cy="190614"/>
+          <a:ext cx="534423" cy="190755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -340,6 +340,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
+    <col min="14" max="14" width="12.5" customWidth="true"/>
     <col min="1" max="1" width="15.0" customWidth="true"/>
     <col min="2" max="2" width="15.0" customWidth="true"/>
     <col min="3" max="3" width="15.0" customWidth="true"/>
@@ -424,10 +425,10 @@
         </is>
       </c>
     </row>
-    <row r="3" customHeight="true" ht="255.0">
+    <row r="3" customHeight="true" ht="128.0">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2024-12-01 00:31:12</t>
+          <t>2024-12-01 10:53:28</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -437,12 +438,12 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>00:31:12</t>
+          <t>10:53:28</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>2024-12-01 00:31:12</t>
+          <t>2024-12-01 10:53:28</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -485,11 +486,16 @@
           <t>http://mms1.baidu.com/it/u=1684950961,555061934&amp;fm=253&amp;app=120&amp;f=JPEG?w=800&amp;h=800</t>
         </is>
       </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
-    <row r="4" customHeight="true" ht="255.0">
+    <row r="4" customHeight="true" ht="128.0">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2024-12-01 00:31:12</t>
+          <t>2024-12-01 10:53:28</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -499,12 +505,12 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>00:31:12</t>
+          <t>10:53:28</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>2024-12-01 00:31:12</t>
+          <t>2024-12-01 10:53:28</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -547,11 +553,16 @@
           <t>http://mms0.baidu.com/it/u=1163903759,2895241531&amp;fm=253&amp;app=138&amp;f=JPEG?w=800&amp;h=1066</t>
         </is>
       </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
-    <row r="5" customHeight="true" ht="255.0">
+    <row r="5" customHeight="true" ht="128.0">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2024-12-01 00:31:12</t>
+          <t>2024-12-01 10:53:28</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -561,12 +572,12 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>00:31:12</t>
+          <t>10:53:28</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>2024-12-01 00:31:12</t>
+          <t>2024-12-01 10:53:28</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -609,11 +620,16 @@
           <t>http://mms1.baidu.com/it/u=4198565569,2274601556&amp;fm=253&amp;app=138&amp;f=JPEG?w=513&amp;h=500</t>
         </is>
       </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
-    <row r="6" customHeight="true" ht="255.0">
+    <row r="6" customHeight="true" ht="128.0">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2024-12-01 00:31:12</t>
+          <t>2024-12-01 10:53:28</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -623,12 +639,12 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>00:31:12</t>
+          <t>10:53:28</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>2024-12-01 00:31:12</t>
+          <t>2024-12-01 10:53:28</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -671,11 +687,16 @@
           <t>http://mms2.baidu.com/it/u=962926323,2652095159&amp;fm=253&amp;app=120&amp;f=JPEG?w=800&amp;h=800</t>
         </is>
       </c>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
-    <row r="7" customHeight="true" ht="255.0">
+    <row r="7" customHeight="true" ht="128.0">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2024-12-01 00:31:12</t>
+          <t>2024-12-01 10:53:28</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -685,12 +706,12 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>00:31:12</t>
+          <t>10:53:28</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>2024-12-01 00:31:12</t>
+          <t>2024-12-01 10:53:28</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
@@ -731,6 +752,11 @@
       <c r="L7" s="1" t="inlineStr">
         <is>
           <t>http://mms2.baidu.com/it/u=3123971159,81579136&amp;fm=253&amp;app=138&amp;f=JPEG?w=500&amp;h=620</t>
+        </is>
+      </c>
+      <c r="M7" s="1" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
